--- a/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.116</v>
+        <v>0.1845</v>
       </c>
       <c r="E2">
-        <v>0.0287</v>
+        <v>0.18725</v>
       </c>
       <c r="G2">
-        <v>0.1645756457564576</v>
+        <v>0.1460898865509551</v>
       </c>
       <c r="H2">
-        <v>0.1645756457564576</v>
+        <v>0.1460898865509551</v>
       </c>
       <c r="I2">
-        <v>0.1558136273431724</v>
+        <v>0.1544506932997188</v>
       </c>
       <c r="J2">
-        <v>0.1101624949671739</v>
+        <v>0.1229890265368521</v>
       </c>
       <c r="K2">
-        <v>33.618</v>
+        <v>51.756</v>
       </c>
       <c r="L2">
-        <v>0.09924132841328413</v>
+        <v>0.1254630078541646</v>
       </c>
       <c r="M2">
-        <v>9.984999999999999</v>
+        <v>9.278</v>
       </c>
       <c r="N2">
-        <v>0.0409859617436992</v>
+        <v>0.03229826637889021</v>
       </c>
       <c r="O2">
-        <v>0.2970135046701172</v>
+        <v>0.1792642398948914</v>
       </c>
       <c r="P2">
-        <v>9.984999999999999</v>
+        <v>9.278</v>
       </c>
       <c r="Q2">
-        <v>0.0409859617436992</v>
+        <v>0.03229826637889021</v>
       </c>
       <c r="R2">
-        <v>0.2970135046701172</v>
+        <v>0.1792642398948914</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>76.08</v>
+        <v>148.19</v>
       </c>
       <c r="V2">
-        <v>0.3122896313931532</v>
+        <v>0.515874121005361</v>
       </c>
       <c r="W2">
-        <v>0.0613777581102939</v>
+        <v>0.1067202788649707</v>
       </c>
       <c r="X2">
-        <v>0.0726810271012561</v>
+        <v>0.07530271502138836</v>
       </c>
       <c r="Y2">
-        <v>-0.0113032689909622</v>
+        <v>0.0314175638435823</v>
       </c>
       <c r="Z2">
-        <v>1.379041275081664</v>
+        <v>1.586835100244649</v>
       </c>
       <c r="AA2">
-        <v>0.1014398300927704</v>
+        <v>0.1625909772036659</v>
       </c>
       <c r="AB2">
-        <v>0.07264037727611643</v>
+        <v>0.07520897833683762</v>
       </c>
       <c r="AC2">
-        <v>0.02536719728776449</v>
+        <v>0.08077106720155527</v>
       </c>
       <c r="AD2">
-        <v>19.644</v>
+        <v>23.507</v>
       </c>
       <c r="AE2">
-        <v>0.4906686875016483</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.13466868750165</v>
+        <v>23.507</v>
       </c>
       <c r="AG2">
-        <v>-55.94533131249835</v>
+        <v>-124.683</v>
       </c>
       <c r="AH2">
-        <v>0.07633862478224923</v>
+        <v>0.07564187960755164</v>
       </c>
       <c r="AI2">
-        <v>0.05629954378135293</v>
+        <v>0.05465384195095639</v>
       </c>
       <c r="AJ2">
-        <v>-0.2980974028287925</v>
+        <v>-0.7669165995189972</v>
       </c>
       <c r="AK2">
-        <v>-0.198701486902326</v>
+        <v>-0.4422684690884195</v>
       </c>
       <c r="AL2">
-        <v>2.507</v>
+        <v>3.035</v>
       </c>
       <c r="AM2">
-        <v>2.507</v>
+        <v>3.013</v>
       </c>
       <c r="AN2">
-        <v>0.3359958949799025</v>
+        <v>0.3389129181084198</v>
       </c>
       <c r="AO2">
-        <v>21.0347028320702</v>
+        <v>20.99308072487644</v>
       </c>
       <c r="AP2">
-        <v>-0.9569029558282451</v>
+        <v>-1.797621107266436</v>
       </c>
       <c r="AQ2">
-        <v>21.0347028320702</v>
+        <v>21.1463657484235</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0827</v>
+        <v>0.105</v>
       </c>
       <c r="E3">
-        <v>0.388</v>
+        <v>0.09449999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2409495548961424</v>
+        <v>0.1536407766990291</v>
       </c>
       <c r="H3">
-        <v>0.2409495548961424</v>
+        <v>0.1536407766990291</v>
       </c>
       <c r="I3">
-        <v>0.2124629080118694</v>
+        <v>0.1274271844660194</v>
       </c>
       <c r="J3">
-        <v>0.1611489356562212</v>
+        <v>0.1274271844660194</v>
       </c>
       <c r="K3">
-        <v>5.59</v>
+        <v>6.62</v>
       </c>
       <c r="L3">
-        <v>0.1658753709198813</v>
+        <v>0.1606796116504854</v>
       </c>
       <c r="M3">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="N3">
-        <v>0.04107648725212465</v>
+        <v>0.04033970276008492</v>
       </c>
       <c r="O3">
-        <v>0.259391771019678</v>
+        <v>0.2870090634441088</v>
       </c>
       <c r="P3">
-        <v>1.45</v>
+        <v>1.9</v>
       </c>
       <c r="Q3">
-        <v>0.04107648725212465</v>
+        <v>0.04033970276008492</v>
       </c>
       <c r="R3">
-        <v>0.259391771019678</v>
+        <v>0.2870090634441088</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.07258919768124435</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AB3">
-        <v>0.07258919768124435</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Consolidated Hallmark Insurance Plc (NGSE:CHIPLC)</t>
+          <t>Veritas Kapital Assurance Plc (NGSE:VERITASKAP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -831,113 +831,98 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.17</v>
-      </c>
       <c r="G4">
-        <v>0.1022598870056497</v>
+        <v>0.1150943396226415</v>
       </c>
       <c r="H4">
-        <v>0.1022598870056497</v>
+        <v>0.1150943396226415</v>
       </c>
       <c r="I4">
-        <v>0.1242937853107345</v>
+        <v>0.06830188679245283</v>
       </c>
       <c r="J4">
-        <v>0.09179066868252833</v>
+        <v>0.05261091279959204</v>
       </c>
       <c r="K4">
-        <v>1.58</v>
+        <v>0.51</v>
       </c>
       <c r="L4">
-        <v>0.08926553672316385</v>
+        <v>0.04811320754716981</v>
       </c>
       <c r="M4">
-        <v>0.449</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.05131428571428572</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.2841772151898734</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.449</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.05131428571428572</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.2841772151898734</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>4.88</v>
+        <v>10.1</v>
       </c>
       <c r="V4">
-        <v>0.5577142857142857</v>
-      </c>
-      <c r="W4">
-        <v>0.1060402684563758</v>
+        <v>1.389270976616231</v>
       </c>
       <c r="X4">
-        <v>0.07277285652126783</v>
-      </c>
-      <c r="Y4">
-        <v>0.03326741193510802</v>
-      </c>
-      <c r="Z4">
-        <v>3.397312859884836</v>
-      </c>
-      <c r="AA4">
-        <v>0.3118416191325818</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AB4">
-        <v>0.07269155687098851</v>
-      </c>
-      <c r="AC4">
-        <v>0.2391500622615933</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AD4">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-4.837</v>
+        <v>-10.1</v>
       </c>
       <c r="AH4">
-        <v>0.004890253610826794</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00238319569916311</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-1.236135957066189</v>
+        <v>3.568904593639576</v>
       </c>
       <c r="AK4">
-        <v>-0.3674694218643166</v>
+        <v>-0.8278688524590163</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AN4">
-        <v>0.01740890688259109</v>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>181</v>
       </c>
       <c r="AP4">
-        <v>-1.9582995951417</v>
+        <v>-8.278688524590164</v>
+      </c>
+      <c r="AQ4">
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -948,7 +933,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Custodian Investment Plc (NGSE:CUSTODIAN)</t>
+          <t>AXA Mansard Insurance Plc (NGSE:MANSARD)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -957,115 +942,118 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.246</v>
+        <v>0.227</v>
       </c>
       <c r="E5">
-        <v>0.0883</v>
+        <v>0.318</v>
       </c>
       <c r="G5">
-        <v>0.2008130081300813</v>
+        <v>0.142314990512334</v>
       </c>
       <c r="H5">
-        <v>0.2008130081300813</v>
+        <v>0.142314990512334</v>
       </c>
       <c r="I5">
-        <v>0.1983739837398374</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="J5">
-        <v>0.1521854143914574</v>
+        <v>0.1555147058823529</v>
       </c>
       <c r="K5">
-        <v>19.8</v>
+        <v>15.7</v>
       </c>
       <c r="L5">
-        <v>0.1609756097560976</v>
+        <v>0.1489563567362429</v>
       </c>
       <c r="M5">
-        <v>6.96</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.07138461538461538</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.3515151515151515</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>6.96</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.07138461538461538</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.3515151515151515</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>20.7</v>
+        <v>56.8</v>
       </c>
       <c r="V5">
-        <v>0.2123076923076923</v>
+        <v>0.5855670103092783</v>
       </c>
       <c r="W5">
-        <v>0.1871455576559546</v>
+        <v>0.2476340694006309</v>
       </c>
       <c r="X5">
-        <v>0.07258919768124435</v>
+        <v>0.08093627810774964</v>
       </c>
       <c r="Y5">
-        <v>0.1145563599747103</v>
+        <v>0.1666977912928813</v>
       </c>
       <c r="Z5">
-        <v>1.541353383458647</v>
+        <v>1.917060749363405</v>
       </c>
       <c r="AA5">
-        <v>0.234571503385329</v>
+        <v>0.298131138595853</v>
       </c>
       <c r="AB5">
-        <v>0.07258919768124435</v>
+        <v>0.07802078557972845</v>
       </c>
       <c r="AC5">
-        <v>0.1619823057040847</v>
+        <v>0.2201103530161245</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="AG5">
-        <v>-20.7</v>
+        <v>-44.5</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.1125343092406221</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.1107110711071107</v>
       </c>
       <c r="AJ5">
-        <v>-0.26953125</v>
+        <v>-0.8476190476190476</v>
       </c>
       <c r="AK5">
-        <v>-0.2029411764705882</v>
+        <v>-0.8195211786372008</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.5394736842105263</v>
+      </c>
+      <c r="AO5">
+        <v>8.410852713178294</v>
       </c>
       <c r="AP5">
-        <v>-0.8085937499999999</v>
+        <v>-1.951754385964912</v>
+      </c>
+      <c r="AQ5">
+        <v>8.410852713178294</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AXA Mansard Insurance Plc (NGSE:MANSARD)</t>
+          <t>Custodian Investment Plc (NGSE:CUSTODIAN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,118 +1073,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.202</v>
+        <v>0.301</v>
       </c>
       <c r="E6">
-        <v>0.0287</v>
+        <v>0.07150000000000001</v>
       </c>
       <c r="G6">
-        <v>0.1848739495798319</v>
+        <v>0.1422543701024714</v>
       </c>
       <c r="H6">
-        <v>0.1848739495798319</v>
+        <v>0.1422543701024714</v>
       </c>
       <c r="I6">
-        <v>0.1530356093937535</v>
+        <v>0.1320072332730561</v>
       </c>
       <c r="J6">
-        <v>0.1217946122098216</v>
+        <v>0.1036769138034961</v>
       </c>
       <c r="K6">
-        <v>4.7</v>
+        <v>16.4</v>
       </c>
       <c r="L6">
-        <v>0.05642256902761105</v>
+        <v>0.09885473176612417</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>6.92</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.07671840354767184</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0.4219512195121952</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>6.92</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.07671840354767184</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0.4219512195121952</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>14.1</v>
+        <v>23.2</v>
       </c>
       <c r="V6">
-        <v>0.2508896797153025</v>
+        <v>0.2572062084257206</v>
       </c>
       <c r="W6">
-        <v>0.08075601374570447</v>
+        <v>0.1368948247078464</v>
       </c>
       <c r="X6">
-        <v>0.07841495481049415</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="Y6">
-        <v>0.002341058935210319</v>
+        <v>0.06179879235814735</v>
       </c>
       <c r="Z6">
-        <v>1.422213573221084</v>
+        <v>1.674066599394551</v>
       </c>
       <c r="AA6">
-        <v>0.1732179506300066</v>
+        <v>0.1735620585267407</v>
       </c>
       <c r="AB6">
-        <v>0.07541201144711876</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AC6">
-        <v>0.09780593918288788</v>
+        <v>0.09846602617704163</v>
       </c>
       <c r="AD6">
-        <v>8.27</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.4906686875016483</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>8.760668687501648</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-5.339331312498352</v>
+        <v>-23.2</v>
       </c>
       <c r="AH6">
-        <v>0.1348611223453614</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.1025111179452176</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.1049795736132432</v>
+        <v>-0.3462686567164179</v>
       </c>
       <c r="AK6">
-        <v>-0.07482176681779749</v>
+        <v>-0.2263414634146342</v>
       </c>
       <c r="AL6">
-        <v>1.69</v>
+        <v>0.001</v>
       </c>
       <c r="AM6">
-        <v>1.69</v>
+        <v>0.001</v>
       </c>
       <c r="AN6">
-        <v>0.5930015775132653</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>7.514792899408284</v>
+        <v>21900</v>
       </c>
       <c r="AP6">
-        <v>-0.3828575442778109</v>
+        <v>-1.008695652173913</v>
       </c>
       <c r="AQ6">
-        <v>7.514792899408284</v>
+        <v>21900</v>
       </c>
     </row>
     <row r="7">
@@ -1216,22 +1207,22 @@
         </is>
       </c>
       <c r="G7">
-        <v>0.09448275862068967</v>
+        <v>0.2308270676691729</v>
       </c>
       <c r="H7">
-        <v>0.09448275862068967</v>
+        <v>0.2308270676691729</v>
       </c>
       <c r="I7">
-        <v>0.1062068965517241</v>
+        <v>0.1406015037593985</v>
       </c>
       <c r="J7">
-        <v>0.07632383808095952</v>
+        <v>0.1015389939283355</v>
       </c>
       <c r="K7">
-        <v>0.949</v>
+        <v>1.79</v>
       </c>
       <c r="L7">
-        <v>0.06544827586206896</v>
+        <v>0.1345864661654135</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1255,31 +1246,31 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>7.68</v>
+        <v>7.91</v>
       </c>
       <c r="V7">
-        <v>2.08695652173913</v>
+        <v>2.054545454545455</v>
       </c>
       <c r="W7">
-        <v>0.0628476821192053</v>
+        <v>0.111875</v>
       </c>
       <c r="X7">
-        <v>0.07258919768124435</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="Y7">
-        <v>-0.009741515562039046</v>
+        <v>0.03677896765030096</v>
       </c>
       <c r="Z7">
-        <v>1.497933884297521</v>
+        <v>1.598557692307692</v>
       </c>
       <c r="AA7">
-        <v>0.1143280632411067</v>
+        <v>0.1623159398133248</v>
       </c>
       <c r="AB7">
-        <v>0.07258919768124435</v>
+        <v>0.07509603234969904</v>
       </c>
       <c r="AC7">
-        <v>0.04173886555986238</v>
+        <v>0.08721990746362572</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -1291,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>-7.68</v>
+        <v>-7.91</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1300,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.92</v>
+        <v>1.948275862068965</v>
       </c>
       <c r="AK7">
-        <v>-0.7741935483870966</v>
+        <v>-0.7197452229299364</v>
       </c>
       <c r="AL7">
-        <v>0.068</v>
+        <v>0.046</v>
       </c>
       <c r="AM7">
-        <v>0.068</v>
+        <v>0.046</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>22.64705882352941</v>
+        <v>40.65217391304348</v>
       </c>
       <c r="AP7">
-        <v>-4</v>
+        <v>-3.731132075471698</v>
       </c>
       <c r="AQ7">
-        <v>22.64705882352941</v>
+        <v>40.65217391304348</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1323,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sovereign Trust Insurance Plc (NGSE:SOVRENINS)</t>
+          <t>Sunu Assurances Nigeria Plc (NGSE:SUNUASSUR)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1341,118 +1332,118 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0394</v>
-      </c>
-      <c r="E8">
-        <v>-0.126</v>
+        <v>-0.0475</v>
       </c>
       <c r="G8">
-        <v>0.1292397660818713</v>
+        <v>0.06135321100917431</v>
       </c>
       <c r="H8">
-        <v>0.1292397660818713</v>
+        <v>0.06135321100917431</v>
       </c>
       <c r="I8">
-        <v>0.09941520467836257</v>
+        <v>0.1353211009174312</v>
       </c>
       <c r="J8">
-        <v>0.06022544283413848</v>
+        <v>0.106460582934156</v>
       </c>
       <c r="K8">
-        <v>0.837</v>
+        <v>0.826</v>
       </c>
       <c r="L8">
-        <v>0.04894736842105263</v>
+        <v>0.09472477064220182</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>0.036</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.004904632152588555</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.04358353510895883</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>0.036</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.004904632152588555</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.04358353510895883</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>8.16</v>
+        <v>17.1</v>
       </c>
       <c r="V8">
-        <v>1.179190751445087</v>
+        <v>2.329700272479564</v>
       </c>
       <c r="W8">
-        <v>0.05042168674698794</v>
+        <v>0.08268268268268268</v>
       </c>
       <c r="X8">
-        <v>0.08825105769467295</v>
+        <v>0.1244789127603928</v>
       </c>
       <c r="Y8">
-        <v>-0.03782937094768501</v>
+        <v>-0.04179623007771009</v>
       </c>
       <c r="Z8">
-        <v>1.470335339638865</v>
+        <v>1.529824561403508</v>
       </c>
       <c r="AA8">
-        <v>0.08855159694443404</v>
+        <v>0.1628660145940071</v>
       </c>
       <c r="AB8">
-        <v>0.07955606792876743</v>
+        <v>0.08854378765452225</v>
       </c>
       <c r="AC8">
-        <v>0.008995529015666609</v>
+        <v>0.07432222693948481</v>
       </c>
       <c r="AD8">
-        <v>2.9</v>
+        <v>7.87</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>2.9</v>
+        <v>7.87</v>
       </c>
       <c r="AG8">
-        <v>-5.26</v>
+        <v>-9.23</v>
       </c>
       <c r="AH8">
-        <v>0.295315682281059</v>
+        <v>0.517422748191979</v>
       </c>
       <c r="AI8">
-        <v>0.142156862745098</v>
+        <v>0.419286094832179</v>
       </c>
       <c r="AJ8">
-        <v>-3.16867469879518</v>
+        <v>4.883597883597882</v>
       </c>
       <c r="AK8">
-        <v>-0.4297385620915032</v>
+        <v>-5.526946107784432</v>
       </c>
       <c r="AL8">
-        <v>0.331</v>
+        <v>0.079</v>
       </c>
       <c r="AM8">
-        <v>0.331</v>
+        <v>0.079</v>
       </c>
       <c r="AN8">
-        <v>1.355140186915888</v>
+        <v>4.949685534591195</v>
       </c>
       <c r="AO8">
-        <v>5.135951661631419</v>
+        <v>14.93670886075949</v>
       </c>
       <c r="AP8">
-        <v>-2.457943925233645</v>
+        <v>-5.80503144654088</v>
       </c>
       <c r="AQ8">
-        <v>5.135951661631419</v>
+        <v>14.93670886075949</v>
       </c>
     </row>
     <row r="9">
@@ -1463,7 +1454,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prestige Assurance Plc (NGSE:PRESTIGE)</t>
+          <t>Consolidated Hallmark Insurance Plc (NGSE:CHIPLC)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1472,25 +1463,28 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.116</v>
+        <v>0.142</v>
+      </c>
+      <c r="E9">
+        <v>0.0725</v>
       </c>
       <c r="G9">
-        <v>0.1265625</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="H9">
-        <v>0.1265625</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="I9">
-        <v>0.11953125</v>
+        <v>0.1119565217391304</v>
       </c>
       <c r="J9">
-        <v>0.08196428571428571</v>
+        <v>0.08304922935357718</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>0.1015625</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1514,55 +1508,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3.88</v>
+        <v>10.4</v>
       </c>
       <c r="V9">
-        <v>0.4743276283618582</v>
+        <v>1.430536451169188</v>
       </c>
       <c r="W9">
-        <v>0.05990783410138249</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="X9">
-        <v>0.07258919768124435</v>
+        <v>0.07519106100715046</v>
       </c>
       <c r="Y9">
-        <v>-0.01268136357986185</v>
+        <v>0.002586716770627315</v>
       </c>
       <c r="Z9">
-        <v>0.6768905341089371</v>
+        <v>1.397857631239079</v>
       </c>
       <c r="AA9">
-        <v>0.05548084913500038</v>
+        <v>0.1160909990204224</v>
       </c>
       <c r="AB9">
-        <v>0.07258919768124435</v>
+        <v>0.0751435214649948</v>
       </c>
       <c r="AC9">
-        <v>-0.01710834854624397</v>
+        <v>0.04094747755542762</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AG9">
-        <v>-3.88</v>
+        <v>-10.385</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.002059025394646534</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.0007070469007777516</v>
       </c>
       <c r="AJ9">
-        <v>-0.9023255813953488</v>
+        <v>3.333868378812199</v>
       </c>
       <c r="AK9">
-        <v>-0.2008281573498965</v>
+        <v>-0.9602404068423486</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1571,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.00646551724137931</v>
       </c>
       <c r="AP9">
-        <v>-2.204545454545455</v>
+        <v>-4.476293103448276</v>
       </c>
     </row>
     <row r="10">
@@ -1594,121 +1588,115 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.108</v>
+        <v>0.237</v>
       </c>
       <c r="E10">
-        <v>-0.194</v>
+        <v>0.458</v>
       </c>
       <c r="G10">
-        <v>0.02576271186440678</v>
+        <v>0.2014492753623189</v>
       </c>
       <c r="H10">
-        <v>0.02576271186440678</v>
+        <v>0.2014492753623189</v>
       </c>
       <c r="I10">
-        <v>0.09265536723163842</v>
+        <v>0.2521739130434782</v>
       </c>
       <c r="J10">
-        <v>0.04632768361581921</v>
+        <v>0.2505797101449275</v>
       </c>
       <c r="K10">
-        <v>0.601</v>
+        <v>5.19</v>
       </c>
       <c r="L10">
-        <v>0.03395480225988701</v>
+        <v>0.2507246376811594</v>
       </c>
       <c r="M10">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.09401709401709403</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>1.830282861896839</v>
+        <v>-0</v>
       </c>
       <c r="P10">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.09401709401709403</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>1.830282861896839</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>4.18</v>
+        <v>4.74</v>
       </c>
       <c r="V10">
-        <v>0.3572649572649573</v>
+        <v>0.3485294117647059</v>
       </c>
       <c r="W10">
-        <v>0.0111090573012939</v>
+        <v>0.1015655577299413</v>
       </c>
       <c r="X10">
-        <v>0.07329512151725191</v>
+        <v>0.07541436903562625</v>
       </c>
       <c r="Y10">
-        <v>-0.06218606421595801</v>
+        <v>0.02615118869431506</v>
       </c>
       <c r="Z10">
-        <v>0.3475972584984584</v>
+        <v>0.4391082072930146</v>
       </c>
       <c r="AA10">
-        <v>0.0161033758174427</v>
+        <v>0.1100316073057423</v>
       </c>
       <c r="AB10">
-        <v>0.07297723638282803</v>
+        <v>0.07527443520868045</v>
       </c>
       <c r="AC10">
-        <v>-0.05687386056538533</v>
+        <v>0.03475717209706189</v>
       </c>
       <c r="AD10">
-        <v>0.221</v>
+        <v>0.094</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.221</v>
+        <v>0.094</v>
       </c>
       <c r="AG10">
-        <v>-3.959</v>
+        <v>-4.646</v>
       </c>
       <c r="AH10">
-        <v>0.01853871319520175</v>
+        <v>0.006864320140207391</v>
       </c>
       <c r="AI10">
-        <v>0.004306229418756455</v>
+        <v>0.001485132871994186</v>
       </c>
       <c r="AJ10">
-        <v>-0.511432631442966</v>
+        <v>-0.5188742461469734</v>
       </c>
       <c r="AK10">
-        <v>-0.08398209626439827</v>
+        <v>-0.07934556136216142</v>
       </c>
       <c r="AL10">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.074</v>
+        <v>-0.022</v>
       </c>
       <c r="AN10">
-        <v>0.1110552763819096</v>
-      </c>
-      <c r="AO10">
-        <v>22.16216216216216</v>
+        <v>0.01669626998223801</v>
       </c>
       <c r="AP10">
-        <v>-1.989447236180904</v>
+        <v>-0.8252220248667851</v>
       </c>
       <c r="AQ10">
-        <v>22.16216216216216</v>
+        <v>-237.2727272727273</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1707,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sunu Assurances Nigeria Plc (NGSE:SUNUASSUR)</t>
+          <t>Prestige Assurance Plc (NGSE:PRESTIGE)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1727,41 +1715,44 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D11">
+        <v>0.252</v>
+      </c>
       <c r="G11">
-        <v>0.0143859649122807</v>
+        <v>0.1220338983050847</v>
       </c>
       <c r="H11">
-        <v>0.0143859649122807</v>
+        <v>0.1220338983050847</v>
       </c>
       <c r="I11">
-        <v>0.04526315789473684</v>
+        <v>0.1745762711864407</v>
       </c>
       <c r="J11">
-        <v>0.02263157894736842</v>
+        <v>0.1363120027672086</v>
       </c>
       <c r="K11">
-        <v>-0.008999999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="L11">
-        <v>-0.001052631578947368</v>
+        <v>0.161864406779661</v>
       </c>
       <c r="M11">
-        <v>0.026</v>
+        <v>0.422</v>
       </c>
       <c r="N11">
-        <v>0.003363518758085381</v>
+        <v>0.05501955671447196</v>
       </c>
       <c r="O11">
-        <v>-2.888888888888889</v>
+        <v>0.2209424083769634</v>
       </c>
       <c r="P11">
-        <v>0.026</v>
+        <v>0.422</v>
       </c>
       <c r="Q11">
-        <v>0.003363518758085381</v>
+        <v>0.05501955671447196</v>
       </c>
       <c r="R11">
-        <v>-2.888888888888889</v>
+        <v>0.2209424083769634</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1770,73 +1761,73 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>12.5</v>
+        <v>3.94</v>
       </c>
       <c r="V11">
-        <v>1.617076326002587</v>
+        <v>0.5136897001303781</v>
       </c>
       <c r="W11">
-        <v>-0.0009</v>
+        <v>0.08232758620689655</v>
       </c>
       <c r="X11">
-        <v>0.1122823049353338</v>
+        <v>0.07604479912647566</v>
       </c>
       <c r="Y11">
-        <v>-0.1131823049353338</v>
+        <v>0.00628278708042089</v>
       </c>
       <c r="Z11">
-        <v>0.7829670329670332</v>
+        <v>0.6107660455486543</v>
       </c>
       <c r="AA11">
-        <v>0.01771978021978022</v>
+        <v>0.0832547428909452</v>
       </c>
       <c r="AB11">
-        <v>0.08336998049762159</v>
+        <v>0.07562061092557083</v>
       </c>
       <c r="AC11">
-        <v>-0.06565020027784137</v>
+        <v>0.007634131965374366</v>
       </c>
       <c r="AD11">
-        <v>8.210000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>8.210000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="AG11">
-        <v>-4.289999999999999</v>
+        <v>-3.782</v>
       </c>
       <c r="AH11">
-        <v>0.5150564617314931</v>
+        <v>0.0201839550332141</v>
       </c>
       <c r="AI11">
-        <v>0.4341618191433105</v>
+        <v>0.00654027651295637</v>
       </c>
       <c r="AJ11">
-        <v>-1.247093023255813</v>
+        <v>-0.9727366255144033</v>
       </c>
       <c r="AK11">
-        <v>-0.6692667706708267</v>
+        <v>-0.1870610347215353</v>
       </c>
       <c r="AL11">
-        <v>0.341</v>
+        <v>0.019</v>
       </c>
       <c r="AM11">
-        <v>0.341</v>
+        <v>0.019</v>
       </c>
       <c r="AN11">
-        <v>14.20415224913495</v>
+        <v>0.06991150442477877</v>
       </c>
       <c r="AO11">
-        <v>1.134897360703812</v>
+        <v>108.421052631579</v>
       </c>
       <c r="AP11">
-        <v>-7.422145328719722</v>
+        <v>-1.673451327433628</v>
       </c>
       <c r="AQ11">
-        <v>1.134897360703812</v>
+        <v>108.421052631579</v>
       </c>
     </row>
     <row r="12">
@@ -1847,7 +1838,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Veritas Kapital Assurance Plc (NGSE:VERITASKAP)</t>
+          <t>Sovereign Trust Insurance Plc (NGSE:SOVRENINS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1855,23 +1846,29 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D12">
+        <v>0.053</v>
+      </c>
+      <c r="E12">
+        <v>0.28</v>
+      </c>
       <c r="G12">
-        <v>-0.005673076923076922</v>
+        <v>0.1418181818181818</v>
       </c>
       <c r="H12">
-        <v>-0.005673076923076922</v>
+        <v>0.1418181818181818</v>
       </c>
       <c r="I12">
-        <v>-0.05028846153846154</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="J12">
-        <v>-0.05028846153846154</v>
+        <v>0.06647727272727273</v>
       </c>
       <c r="K12">
-        <v>-1.73</v>
+        <v>1.41</v>
       </c>
       <c r="L12">
-        <v>-0.1663461538461538</v>
+        <v>0.08545454545454545</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1880,7 +1877,7 @@
         <v>-0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1889,58 +1886,79 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2.348993288590604</v>
+      </c>
+      <c r="W12">
+        <v>0.08057142857142857</v>
       </c>
       <c r="X12">
-        <v>0.07258919768124435</v>
+        <v>0.0988201386449177</v>
+      </c>
+      <c r="Y12">
+        <v>-0.01824871007348913</v>
+      </c>
+      <c r="Z12">
+        <v>1.348039215686275</v>
+      </c>
+      <c r="AA12">
+        <v>0.08961397058823531</v>
       </c>
       <c r="AB12">
-        <v>0.07258919768124435</v>
+        <v>0.08393201602731928</v>
+      </c>
+      <c r="AC12">
+        <v>0.005681954560916025</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>-10.93</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.3399778516057586</v>
+      </c>
+      <c r="AI12">
+        <v>0.1244426428860965</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>2.199195171026157</v>
+      </c>
+      <c r="AK12">
+        <v>-1.024367385192127</v>
       </c>
       <c r="AL12">
-        <v>0.003</v>
+        <v>0.306</v>
       </c>
       <c r="AM12">
-        <v>0.003</v>
+        <v>0.306</v>
       </c>
       <c r="AN12">
-        <v>-0</v>
+        <v>1.4688995215311</v>
       </c>
       <c r="AO12">
-        <v>-174.3333333333333</v>
+        <v>5.718954248366013</v>
       </c>
       <c r="AP12">
-        <v>-0</v>
+        <v>-5.229665071770335</v>
       </c>
       <c r="AQ12">
-        <v>-174.3333333333333</v>
+        <v>5.718954248366013</v>
       </c>
     </row>
   </sheetData>
